--- a/類股清單.xlsx
+++ b/類股清單.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ice.c.lin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joukey\Desktop\cur_work\customer\banqiao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C7A4A4B-94A9-49C3-BD5B-D76FF94401C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{21439932-6F9A-4A35-9ED2-39F9972FE994}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="152">
   <si>
     <t>蘋果概念股</t>
   </si>
@@ -541,13 +540,41 @@
   </si>
   <si>
     <t>2359.TW</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABC概念股</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0050.TW</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>台灣50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>00929.TW</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>復華科技高息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>00900.TW</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈哈哈</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -594,9 +621,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -917,11 +947,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DB09CCF-C95E-42D7-881D-977AF946AE98}">
-  <dimension ref="A1:D43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13:G14"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -930,20 +960,26 @@
     <col min="2" max="2" width="10.875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="5" max="5" width="8.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -956,8 +992,14 @@
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -970,8 +1012,14 @@
       <c r="D3" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -984,8 +1032,14 @@
       <c r="D4" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -998,8 +1052,14 @@
       <c r="D5" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1013,7 +1073,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -1027,7 +1087,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -1041,7 +1101,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -1055,7 +1115,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -1069,7 +1129,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -1083,7 +1143,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -1097,7 +1157,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -1111,7 +1171,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
@@ -1125,7 +1185,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
@@ -1139,7 +1199,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
@@ -1466,11 +1526,13 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/類股清單.xlsx
+++ b/類股清單.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="154">
   <si>
     <t>蘋果概念股</t>
   </si>
@@ -568,6 +568,14 @@
   </si>
   <si>
     <t>哈哈哈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2506.TW</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>太設</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -951,21 +959,21 @@
   <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6328125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -979,7 +987,7 @@
       </c>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -999,7 +1007,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1019,7 +1027,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1039,7 +1047,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -1059,7 +1067,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1072,8 +1080,14 @@
       <c r="D6" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E6" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -1087,7 +1101,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -1101,7 +1115,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -1115,7 +1129,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -1129,7 +1143,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -1143,7 +1157,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -1157,7 +1171,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -1171,7 +1185,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
@@ -1185,7 +1199,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
@@ -1199,7 +1213,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
@@ -1213,7 +1227,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
@@ -1227,7 +1241,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
@@ -1241,7 +1255,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
@@ -1255,7 +1269,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
@@ -1269,7 +1283,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
@@ -1283,7 +1297,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
@@ -1297,7 +1311,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
@@ -1311,7 +1325,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>32</v>
       </c>
@@ -1325,7 +1339,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>33</v>
       </c>
@@ -1339,7 +1353,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>34</v>
       </c>
@@ -1353,7 +1367,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>35</v>
       </c>
@@ -1367,7 +1381,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>36</v>
       </c>
@@ -1381,7 +1395,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>37</v>
       </c>
@@ -1395,7 +1409,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
         <v>38</v>
       </c>
@@ -1409,7 +1423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
         <v>39</v>
       </c>
@@ -1423,7 +1437,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
         <v>40</v>
       </c>
@@ -1437,7 +1451,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C33" s="1" t="s">
         <v>134</v>
       </c>
@@ -1445,7 +1459,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C34" s="1" t="s">
         <v>135</v>
       </c>
@@ -1453,7 +1467,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C35" s="1" t="s">
         <v>136</v>
       </c>
@@ -1461,7 +1475,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C36" s="1" t="s">
         <v>137</v>
       </c>
@@ -1469,7 +1483,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C37" s="1" t="s">
         <v>138</v>
       </c>
@@ -1477,7 +1491,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C38" s="1" t="s">
         <v>139</v>
       </c>
@@ -1485,7 +1499,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C39" s="1" t="s">
         <v>140</v>
       </c>
@@ -1493,7 +1507,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C40" s="1" t="s">
         <v>141</v>
       </c>
@@ -1501,7 +1515,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C41" s="1" t="s">
         <v>142</v>
       </c>
@@ -1509,7 +1523,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C42" s="1" t="s">
         <v>143</v>
       </c>
@@ -1517,7 +1531,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C43" s="1" t="s">
         <v>144</v>
       </c>
